--- a/020-内部設計/023-検索機能/Common/クラス仕様書_CommonServlet.xlsx
+++ b/020-内部設計/023-検索機能/Common/クラス仕様書_CommonServlet.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC0ECE2-FFD7-4F85-BA99-ED094428BF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3855EF-A2B8-4496-ACFD-4D67E9F358B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="727" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="727" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス仕様" sheetId="1" r:id="rId1"/>
-    <sheet name="メソッド仕様（chackValue）" sheetId="7" r:id="rId2"/>
-    <sheet name="メソッド仕様（checkParameters)" sheetId="8" r:id="rId3"/>
+    <sheet name="メソッド仕様_checkValue" sheetId="7" r:id="rId2"/>
+    <sheet name="メソッド仕様_checkParameters" sheetId="8" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">クラス仕様!$A$1:$BI$24</definedName>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="82">
   <si>
     <t>クラス仕様書</t>
   </si>
@@ -218,27 +218,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>部署検索サービス</t>
-    <rPh sb="0" eb="4">
-      <t>ブショケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>各servletの親クラス</t>
-    <rPh sb="0" eb="1">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>オヤ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>各servletの親クラス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>共通</t>
     <rPh sb="0" eb="2">
       <t>キョウツウ</t>
@@ -280,25 +259,6 @@
   </si>
   <si>
     <t>protected</t>
-  </si>
-  <si>
-    <t>文字列変数に値が格納されているか確認する。</t>
-    <rPh sb="0" eb="3">
-      <t>モジレツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カクノウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>値チェック</t>
@@ -355,66 +315,12 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>1.　引数の文字列の値を確認する。</t>
-    <rPh sb="3" eb="5">
-      <t>ヒキスウ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>モジレツ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>1-2. それ以外の場合</t>
     <rPh sb="7" eb="9">
       <t>イガイ</t>
     </rPh>
     <rPh sb="10" eb="12">
       <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>1-1-1. 呼び出し元へ真を返却する。</t>
-    <rPh sb="7" eb="8">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>シン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヘンキャク</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>1-2-1. 呼び出し元へ偽を返却する。</t>
-    <rPh sb="7" eb="8">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ニセ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヘンキャク</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -430,9 +336,6 @@
   </si>
   <si>
     <t>HttpServletRequest</t>
-  </si>
-  <si>
-    <t>リクエスト情報</t>
   </si>
   <si>
     <t>1. 呼び出し元に真を返却。</t>
@@ -452,36 +355,6 @@
       <t>ヘンキャク</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Null,空文字判定。</t>
-    <rPh sb="5" eb="8">
-      <t>カラモジ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>リクエストオブジェクトから受け取った値の確認する。</t>
-    <rPh sb="13" eb="14">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>リクエストオブジェクトから受け取った値の確認する。</t>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>1-1. 引数の値が存在しない、もしくは空の文字列の場合</t>
@@ -511,6 +384,201 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>リクエストオブジェクトから受け取った値の確認。</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>商品検索</t>
+    <rPh sb="0" eb="4">
+      <t>ショウヒンケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字列型変数に値が格納されているか確認。</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>リクエストオブジェクトから受け取った値の確認。</t>
+    <rPh sb="13" eb="14">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1.　引数の文字列の値を確認。</t>
+    <rPh sb="3" eb="5">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1-2-1. 呼び出し元へ偽を返却。</t>
+    <rPh sb="7" eb="8">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ニセ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンキャク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>各サーブレットクラスの共通の処理を持つクラス。</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通処理クラス</t>
+    <rPh sb="0" eb="4">
+      <t>キョウツウショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>存在,空文字判定。</t>
+    <rPh sb="0" eb="2">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>カラモジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>1-1-1. 呼び出し元へ偽を返却。</t>
+    <rPh sb="7" eb="8">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ニセ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンキャク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>リクエストに格納された画面情報</t>
+    <rPh sb="6" eb="8">
+      <t>カクノウ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>ガメンジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>値が不正でない場合</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>値が不正な場合</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>true</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -957,7 +1025,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1327,6 +1395,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1649,7 +1720,7 @@
   <dimension ref="A1:IY23"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="AQ24" sqref="AQ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1680,7 +1751,7 @@
       <c r="P1" s="108"/>
       <c r="Q1" s="108"/>
       <c r="R1" s="109" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="S1" s="109"/>
       <c r="T1" s="109"/>
@@ -1697,7 +1768,7 @@
       <c r="AC1" s="108"/>
       <c r="AD1" s="108"/>
       <c r="AE1" s="109" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AF1" s="109"/>
       <c r="AG1" s="109"/>
@@ -1716,7 +1787,7 @@
       <c r="AR1" s="108"/>
       <c r="AS1" s="108"/>
       <c r="AT1" s="109" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AU1" s="109"/>
       <c r="AV1" s="109"/>
@@ -2216,7 +2287,7 @@
       <c r="E4" s="100"/>
       <c r="F4" s="100"/>
       <c r="G4" s="101" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="H4" s="102"/>
       <c r="I4" s="102"/>
@@ -2283,7 +2354,7 @@
       <c r="E5" s="100"/>
       <c r="F5" s="100"/>
       <c r="G5" s="101" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="H5" s="102"/>
       <c r="I5" s="102"/>
@@ -2350,7 +2421,7 @@
       <c r="E6" s="100"/>
       <c r="F6" s="100"/>
       <c r="G6" s="101" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H6" s="102"/>
       <c r="I6" s="102"/>
@@ -2417,7 +2488,7 @@
       <c r="E7" s="100"/>
       <c r="F7" s="100"/>
       <c r="G7" s="101" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H7" s="102"/>
       <c r="I7" s="102"/>
@@ -2484,7 +2555,7 @@
       <c r="E8" s="100"/>
       <c r="F8" s="100"/>
       <c r="G8" s="101" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H8" s="102"/>
       <c r="I8" s="102"/>
@@ -2551,7 +2622,7 @@
       <c r="E9" s="100"/>
       <c r="F9" s="100"/>
       <c r="G9" s="101" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H9" s="102"/>
       <c r="I9" s="102"/>
@@ -2578,7 +2649,7 @@
       <c r="AD9" s="102"/>
       <c r="AE9" s="103"/>
       <c r="AF9" s="100" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AG9" s="100"/>
       <c r="AH9" s="100"/>
@@ -2708,7 +2779,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="98" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D13" s="98"/>
       <c r="E13" s="98"/>
@@ -2863,7 +2934,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="98" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D17" s="98"/>
       <c r="E17" s="98"/>
@@ -2873,7 +2944,7 @@
       <c r="I17" s="98"/>
       <c r="J17" s="99"/>
       <c r="K17" s="98" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L17" s="98"/>
       <c r="M17" s="98"/>
@@ -2883,7 +2954,7 @@
       <c r="Q17" s="98"/>
       <c r="R17" s="99"/>
       <c r="S17" s="98" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="T17" s="98"/>
       <c r="U17" s="98"/>
@@ -2903,7 +2974,7 @@
       <c r="AE17" s="85"/>
       <c r="AF17" s="85"/>
       <c r="AG17" s="96" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="AH17" s="96"/>
       <c r="AI17" s="96"/>
@@ -2938,7 +3009,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="98" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D18" s="98"/>
       <c r="E18" s="98"/>
@@ -2948,7 +3019,7 @@
       <c r="I18" s="98"/>
       <c r="J18" s="99"/>
       <c r="K18" s="98" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L18" s="98"/>
       <c r="M18" s="98"/>
@@ -2958,7 +3029,7 @@
       <c r="Q18" s="98"/>
       <c r="R18" s="99"/>
       <c r="S18" s="98" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="T18" s="98"/>
       <c r="U18" s="98"/>
@@ -2978,7 +3049,7 @@
       <c r="AE18" s="85"/>
       <c r="AF18" s="85"/>
       <c r="AG18" s="96" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AH18" s="96"/>
       <c r="AI18" s="96"/>
@@ -3611,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="81" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D22" s="82"/>
       <c r="E22" s="82"/>
@@ -3876,7 +3947,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="81" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D23" s="82"/>
       <c r="E23" s="82"/>
@@ -4236,8 +4307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IY60"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4270,7 +4341,7 @@
       <c r="Q1" s="108"/>
       <c r="R1" s="109" t="str">
         <f>クラス仕様!R1</f>
-        <v>各servletの親クラス</v>
+        <v>商品検索</v>
       </c>
       <c r="S1" s="109"/>
       <c r="T1" s="109"/>
@@ -4286,9 +4357,8 @@
       </c>
       <c r="AC1" s="108"/>
       <c r="AD1" s="108"/>
-      <c r="AE1" s="109" t="str">
-        <f>クラス仕様!AE1</f>
-        <v>共通</v>
+      <c r="AE1" s="109" t="s">
+        <v>76</v>
       </c>
       <c r="AF1" s="109"/>
       <c r="AG1" s="109"/>
@@ -4307,7 +4377,7 @@
       <c r="AR1" s="108"/>
       <c r="AS1" s="108"/>
       <c r="AT1" s="109" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AU1" s="109"/>
       <c r="AV1" s="109"/>
@@ -4806,63 +4876,63 @@
       <c r="D4" s="100"/>
       <c r="E4" s="100"/>
       <c r="F4" s="100"/>
-      <c r="G4" s="123" t="s">
-        <v>69</v>
+      <c r="G4" s="124" t="s">
+        <v>72</v>
       </c>
-      <c r="H4" s="123"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="123"/>
-      <c r="K4" s="123"/>
-      <c r="L4" s="123"/>
-      <c r="M4" s="123"/>
-      <c r="N4" s="123"/>
-      <c r="O4" s="123"/>
-      <c r="P4" s="123"/>
-      <c r="Q4" s="123"/>
-      <c r="R4" s="123"/>
-      <c r="S4" s="123"/>
-      <c r="T4" s="123"/>
-      <c r="U4" s="123"/>
-      <c r="V4" s="123"/>
-      <c r="W4" s="123"/>
-      <c r="X4" s="123"/>
-      <c r="Y4" s="123"/>
-      <c r="Z4" s="123"/>
-      <c r="AA4" s="123"/>
-      <c r="AB4" s="123"/>
-      <c r="AC4" s="123"/>
-      <c r="AD4" s="123"/>
-      <c r="AE4" s="123"/>
-      <c r="AF4" s="123"/>
-      <c r="AG4" s="123"/>
-      <c r="AH4" s="123"/>
-      <c r="AI4" s="123"/>
-      <c r="AJ4" s="123"/>
-      <c r="AK4" s="123"/>
-      <c r="AL4" s="123"/>
-      <c r="AM4" s="123"/>
-      <c r="AN4" s="123"/>
-      <c r="AO4" s="123"/>
-      <c r="AP4" s="123"/>
-      <c r="AQ4" s="123"/>
-      <c r="AR4" s="123"/>
-      <c r="AS4" s="123"/>
-      <c r="AT4" s="123"/>
-      <c r="AU4" s="123"/>
-      <c r="AV4" s="123"/>
-      <c r="AW4" s="123"/>
-      <c r="AX4" s="123"/>
-      <c r="AY4" s="123"/>
-      <c r="AZ4" s="123"/>
-      <c r="BA4" s="123"/>
-      <c r="BB4" s="123"/>
-      <c r="BC4" s="123"/>
-      <c r="BD4" s="123"/>
-      <c r="BE4" s="123"/>
-      <c r="BF4" s="123"/>
-      <c r="BG4" s="123"/>
-      <c r="BH4" s="123"/>
-      <c r="BI4" s="123"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="124"/>
+      <c r="K4" s="124"/>
+      <c r="L4" s="124"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="124"/>
+      <c r="O4" s="124"/>
+      <c r="P4" s="124"/>
+      <c r="Q4" s="124"/>
+      <c r="R4" s="124"/>
+      <c r="S4" s="124"/>
+      <c r="T4" s="124"/>
+      <c r="U4" s="124"/>
+      <c r="V4" s="124"/>
+      <c r="W4" s="124"/>
+      <c r="X4" s="124"/>
+      <c r="Y4" s="124"/>
+      <c r="Z4" s="124"/>
+      <c r="AA4" s="124"/>
+      <c r="AB4" s="124"/>
+      <c r="AC4" s="124"/>
+      <c r="AD4" s="124"/>
+      <c r="AE4" s="124"/>
+      <c r="AF4" s="124"/>
+      <c r="AG4" s="124"/>
+      <c r="AH4" s="124"/>
+      <c r="AI4" s="124"/>
+      <c r="AJ4" s="124"/>
+      <c r="AK4" s="124"/>
+      <c r="AL4" s="124"/>
+      <c r="AM4" s="124"/>
+      <c r="AN4" s="124"/>
+      <c r="AO4" s="124"/>
+      <c r="AP4" s="124"/>
+      <c r="AQ4" s="124"/>
+      <c r="AR4" s="124"/>
+      <c r="AS4" s="124"/>
+      <c r="AT4" s="124"/>
+      <c r="AU4" s="124"/>
+      <c r="AV4" s="124"/>
+      <c r="AW4" s="124"/>
+      <c r="AX4" s="124"/>
+      <c r="AY4" s="124"/>
+      <c r="AZ4" s="124"/>
+      <c r="BA4" s="124"/>
+      <c r="BB4" s="124"/>
+      <c r="BC4" s="124"/>
+      <c r="BD4" s="124"/>
+      <c r="BE4" s="124"/>
+      <c r="BF4" s="124"/>
+      <c r="BG4" s="124"/>
+      <c r="BH4" s="124"/>
+      <c r="BI4" s="124"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
       <c r="BL4" s="1"/>
@@ -5062,71 +5132,71 @@
       <c r="IX4" s="1"/>
     </row>
     <row r="5" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="124" t="s">
+      <c r="A5" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="124"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="124"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="125" t="s">
-        <v>51</v>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="126" t="s">
+        <v>47</v>
       </c>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="125"/>
-      <c r="L5" s="125"/>
-      <c r="M5" s="125"/>
-      <c r="N5" s="125"/>
-      <c r="O5" s="125"/>
-      <c r="P5" s="125"/>
-      <c r="Q5" s="125"/>
-      <c r="R5" s="125"/>
-      <c r="S5" s="125"/>
-      <c r="T5" s="125"/>
-      <c r="U5" s="125"/>
-      <c r="V5" s="125"/>
-      <c r="W5" s="125"/>
-      <c r="X5" s="125"/>
-      <c r="Y5" s="125"/>
-      <c r="Z5" s="125"/>
-      <c r="AA5" s="125"/>
-      <c r="AB5" s="125"/>
-      <c r="AC5" s="125"/>
-      <c r="AD5" s="125"/>
-      <c r="AE5" s="125"/>
-      <c r="AF5" s="125"/>
-      <c r="AG5" s="125"/>
-      <c r="AH5" s="125"/>
-      <c r="AI5" s="125"/>
-      <c r="AJ5" s="125"/>
-      <c r="AK5" s="125"/>
-      <c r="AL5" s="125"/>
-      <c r="AM5" s="125"/>
-      <c r="AN5" s="125"/>
-      <c r="AO5" s="125"/>
-      <c r="AP5" s="125"/>
-      <c r="AQ5" s="125"/>
-      <c r="AR5" s="125"/>
-      <c r="AS5" s="125"/>
-      <c r="AT5" s="125"/>
-      <c r="AU5" s="125"/>
-      <c r="AV5" s="125"/>
-      <c r="AW5" s="125"/>
-      <c r="AX5" s="125"/>
-      <c r="AY5" s="125"/>
-      <c r="AZ5" s="125"/>
-      <c r="BA5" s="125"/>
-      <c r="BB5" s="125"/>
-      <c r="BC5" s="125"/>
-      <c r="BD5" s="125"/>
-      <c r="BE5" s="125"/>
-      <c r="BF5" s="125"/>
-      <c r="BG5" s="125"/>
-      <c r="BH5" s="125"/>
-      <c r="BI5" s="125"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="126"/>
+      <c r="M5" s="126"/>
+      <c r="N5" s="126"/>
+      <c r="O5" s="126"/>
+      <c r="P5" s="126"/>
+      <c r="Q5" s="126"/>
+      <c r="R5" s="126"/>
+      <c r="S5" s="126"/>
+      <c r="T5" s="126"/>
+      <c r="U5" s="126"/>
+      <c r="V5" s="126"/>
+      <c r="W5" s="126"/>
+      <c r="X5" s="126"/>
+      <c r="Y5" s="126"/>
+      <c r="Z5" s="126"/>
+      <c r="AA5" s="126"/>
+      <c r="AB5" s="126"/>
+      <c r="AC5" s="126"/>
+      <c r="AD5" s="126"/>
+      <c r="AE5" s="126"/>
+      <c r="AF5" s="126"/>
+      <c r="AG5" s="126"/>
+      <c r="AH5" s="126"/>
+      <c r="AI5" s="126"/>
+      <c r="AJ5" s="126"/>
+      <c r="AK5" s="126"/>
+      <c r="AL5" s="126"/>
+      <c r="AM5" s="126"/>
+      <c r="AN5" s="126"/>
+      <c r="AO5" s="126"/>
+      <c r="AP5" s="126"/>
+      <c r="AQ5" s="126"/>
+      <c r="AR5" s="126"/>
+      <c r="AS5" s="126"/>
+      <c r="AT5" s="126"/>
+      <c r="AU5" s="126"/>
+      <c r="AV5" s="126"/>
+      <c r="AW5" s="126"/>
+      <c r="AX5" s="126"/>
+      <c r="AY5" s="126"/>
+      <c r="AZ5" s="126"/>
+      <c r="BA5" s="126"/>
+      <c r="BB5" s="126"/>
+      <c r="BC5" s="126"/>
+      <c r="BD5" s="126"/>
+      <c r="BE5" s="126"/>
+      <c r="BF5" s="126"/>
+      <c r="BG5" s="126"/>
+      <c r="BH5" s="126"/>
+      <c r="BI5" s="126"/>
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1"/>
@@ -6125,7 +6195,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="84" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D9" s="84"/>
       <c r="E9" s="84"/>
@@ -6135,7 +6205,7 @@
       <c r="I9" s="84"/>
       <c r="J9" s="84"/>
       <c r="K9" s="84" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L9" s="84"/>
       <c r="M9" s="84"/>
@@ -6145,7 +6215,7 @@
       <c r="Q9" s="84"/>
       <c r="R9" s="84"/>
       <c r="S9" s="84" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="T9" s="84"/>
       <c r="U9" s="84"/>
@@ -6155,7 +6225,7 @@
       <c r="Y9" s="84"/>
       <c r="Z9" s="84"/>
       <c r="AA9" s="113" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AB9" s="113"/>
       <c r="AC9" s="113"/>
@@ -7191,7 +7261,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="84" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D13" s="84"/>
       <c r="E13" s="84"/>
@@ -7200,18 +7270,18 @@
       <c r="H13" s="84"/>
       <c r="I13" s="84"/>
       <c r="J13" s="84"/>
-      <c r="K13" s="84" t="b">
-        <v>1</v>
+      <c r="K13" s="123" t="s">
+        <v>73</v>
       </c>
-      <c r="L13" s="84"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="84"/>
-      <c r="R13" s="84"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="123"/>
+      <c r="N13" s="123"/>
+      <c r="O13" s="123"/>
+      <c r="P13" s="123"/>
+      <c r="Q13" s="123"/>
+      <c r="R13" s="123"/>
       <c r="S13" s="84" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="T13" s="84"/>
       <c r="U13" s="84"/>
@@ -7221,7 +7291,7 @@
       <c r="Y13" s="84"/>
       <c r="Z13" s="84"/>
       <c r="AA13" s="113" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="AB13" s="113"/>
       <c r="AC13" s="113"/>
@@ -7462,7 +7532,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="84" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D14" s="84"/>
       <c r="E14" s="84"/>
@@ -7471,18 +7541,18 @@
       <c r="H14" s="84"/>
       <c r="I14" s="84"/>
       <c r="J14" s="84"/>
-      <c r="K14" s="84" t="b">
-        <v>0</v>
+      <c r="K14" s="123" t="s">
+        <v>74</v>
       </c>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="84"/>
-      <c r="O14" s="84"/>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="84"/>
+      <c r="L14" s="123"/>
+      <c r="M14" s="123"/>
+      <c r="N14" s="123"/>
+      <c r="O14" s="123"/>
+      <c r="P14" s="123"/>
+      <c r="Q14" s="123"/>
+      <c r="R14" s="123"/>
       <c r="S14" s="84" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="T14" s="84"/>
       <c r="U14" s="84"/>
@@ -7492,7 +7562,7 @@
       <c r="Y14" s="84"/>
       <c r="Z14" s="84"/>
       <c r="AA14" s="113" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="AB14" s="113"/>
       <c r="AC14" s="113"/>
@@ -8336,7 +8406,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="98" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D18" s="98"/>
       <c r="E18" s="98"/>
@@ -8345,7 +8415,9 @@
       <c r="H18" s="98"/>
       <c r="I18" s="98"/>
       <c r="J18" s="99"/>
-      <c r="K18" s="98"/>
+      <c r="K18" s="98" t="s">
+        <v>75</v>
+      </c>
       <c r="L18" s="98"/>
       <c r="M18" s="98"/>
       <c r="N18" s="98"/>
@@ -8353,7 +8425,9 @@
       <c r="P18" s="98"/>
       <c r="Q18" s="98"/>
       <c r="R18" s="99"/>
-      <c r="S18" s="98"/>
+      <c r="S18" s="98" t="s">
+        <v>75</v>
+      </c>
       <c r="T18" s="98"/>
       <c r="U18" s="98"/>
       <c r="V18" s="98"/>
@@ -8369,7 +8443,9 @@
         <v>27</v>
       </c>
       <c r="AD18" s="119"/>
-      <c r="AE18" s="120"/>
+      <c r="AE18" s="120" t="s">
+        <v>75</v>
+      </c>
       <c r="AF18" s="96"/>
       <c r="AG18" s="96"/>
       <c r="AH18" s="96"/>
@@ -8389,7 +8465,9 @@
       <c r="AV18" s="96"/>
       <c r="AW18" s="96"/>
       <c r="AX18" s="96"/>
-      <c r="AY18" s="121"/>
+      <c r="AY18" s="121" t="s">
+        <v>75</v>
+      </c>
       <c r="AZ18" s="121"/>
       <c r="BA18" s="121"/>
       <c r="BB18" s="121"/>
@@ -8605,7 +8683,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="98" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D19" s="98"/>
       <c r="E19" s="98"/>
@@ -8614,7 +8692,9 @@
       <c r="H19" s="98"/>
       <c r="I19" s="98"/>
       <c r="J19" s="99"/>
-      <c r="K19" s="98"/>
+      <c r="K19" s="98" t="s">
+        <v>75</v>
+      </c>
       <c r="L19" s="98"/>
       <c r="M19" s="98"/>
       <c r="N19" s="98"/>
@@ -8622,7 +8702,9 @@
       <c r="P19" s="98"/>
       <c r="Q19" s="98"/>
       <c r="R19" s="99"/>
-      <c r="S19" s="98"/>
+      <c r="S19" s="98" t="s">
+        <v>75</v>
+      </c>
       <c r="T19" s="98"/>
       <c r="U19" s="98"/>
       <c r="V19" s="98"/>
@@ -8638,7 +8720,9 @@
         <v>27</v>
       </c>
       <c r="AD19" s="119"/>
-      <c r="AE19" s="120"/>
+      <c r="AE19" s="120" t="s">
+        <v>75</v>
+      </c>
       <c r="AF19" s="96"/>
       <c r="AG19" s="96"/>
       <c r="AH19" s="96"/>
@@ -8658,7 +8742,9 @@
       <c r="AV19" s="96"/>
       <c r="AW19" s="96"/>
       <c r="AX19" s="96"/>
-      <c r="AY19" s="121"/>
+      <c r="AY19" s="121" t="s">
+        <v>75</v>
+      </c>
       <c r="AZ19" s="121"/>
       <c r="BA19" s="121"/>
       <c r="BB19" s="121"/>
@@ -9930,7 +10016,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="84" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D24" s="84"/>
       <c r="E24" s="84"/>
@@ -9939,7 +10025,9 @@
       <c r="H24" s="84"/>
       <c r="I24" s="84"/>
       <c r="J24" s="84"/>
-      <c r="K24" s="84"/>
+      <c r="K24" s="84" t="s">
+        <v>75</v>
+      </c>
       <c r="L24" s="84"/>
       <c r="M24" s="84"/>
       <c r="N24" s="84"/>
@@ -9947,7 +10035,9 @@
       <c r="P24" s="84"/>
       <c r="Q24" s="84"/>
       <c r="R24" s="84"/>
-      <c r="S24" s="84"/>
+      <c r="S24" s="84" t="s">
+        <v>75</v>
+      </c>
       <c r="T24" s="84"/>
       <c r="U24" s="84"/>
       <c r="V24" s="84"/>
@@ -9955,7 +10045,9 @@
       <c r="X24" s="84"/>
       <c r="Y24" s="84"/>
       <c r="Z24" s="84"/>
-      <c r="AA24" s="113"/>
+      <c r="AA24" s="113" t="s">
+        <v>75</v>
+      </c>
       <c r="AB24" s="113"/>
       <c r="AC24" s="113"/>
       <c r="AD24" s="113"/>
@@ -10195,7 +10287,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="84" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D25" s="84"/>
       <c r="E25" s="84"/>
@@ -10204,7 +10296,9 @@
       <c r="H25" s="84"/>
       <c r="I25" s="84"/>
       <c r="J25" s="84"/>
-      <c r="K25" s="84"/>
+      <c r="K25" s="84" t="s">
+        <v>75</v>
+      </c>
       <c r="L25" s="84"/>
       <c r="M25" s="84"/>
       <c r="N25" s="84"/>
@@ -10212,7 +10306,9 @@
       <c r="P25" s="84"/>
       <c r="Q25" s="84"/>
       <c r="R25" s="84"/>
-      <c r="S25" s="84"/>
+      <c r="S25" s="84" t="s">
+        <v>75</v>
+      </c>
       <c r="T25" s="84"/>
       <c r="U25" s="84"/>
       <c r="V25" s="84"/>
@@ -10220,7 +10316,9 @@
       <c r="X25" s="84"/>
       <c r="Y25" s="84"/>
       <c r="Z25" s="84"/>
-      <c r="AA25" s="113"/>
+      <c r="AA25" s="113" t="s">
+        <v>75</v>
+      </c>
       <c r="AB25" s="113"/>
       <c r="AC25" s="113"/>
       <c r="AD25" s="113"/>
@@ -11241,7 +11339,7 @@
     <row r="29" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="24"/>
       <c r="B29" s="51" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C29" s="52"/>
       <c r="D29" s="52"/>
@@ -11504,7 +11602,7 @@
       <c r="A30" s="24"/>
       <c r="B30" s="24"/>
       <c r="C30" s="78" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D30" s="77"/>
       <c r="E30" s="7"/>
@@ -11767,7 +11865,7 @@
       <c r="B31" s="24"/>
       <c r="C31" s="78"/>
       <c r="D31" s="78" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
@@ -12028,7 +12126,7 @@
       <c r="A32" s="24"/>
       <c r="B32" s="24"/>
       <c r="C32" s="78" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D32" s="77"/>
       <c r="E32" s="7"/>
@@ -12291,7 +12389,7 @@
       <c r="B33" s="37"/>
       <c r="C33" s="78"/>
       <c r="D33" s="78" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
@@ -19669,8 +19767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D0FE4B-C025-4766-99FF-048558A60326}">
   <dimension ref="A1:IY59"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:BI5"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -19703,7 +19801,7 @@
       <c r="Q1" s="108"/>
       <c r="R1" s="109" t="str">
         <f>クラス仕様!R1</f>
-        <v>各servletの親クラス</v>
+        <v>商品検索</v>
       </c>
       <c r="S1" s="109"/>
       <c r="T1" s="109"/>
@@ -19740,7 +19838,7 @@
       <c r="AR1" s="108"/>
       <c r="AS1" s="108"/>
       <c r="AT1" s="109" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AU1" s="109"/>
       <c r="AV1" s="109"/>
@@ -20239,63 +20337,63 @@
       <c r="D4" s="100"/>
       <c r="E4" s="100"/>
       <c r="F4" s="100"/>
-      <c r="G4" s="123" t="s">
-        <v>71</v>
+      <c r="G4" s="124" t="s">
+        <v>64</v>
       </c>
-      <c r="H4" s="123"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="123"/>
-      <c r="K4" s="123"/>
-      <c r="L4" s="123"/>
-      <c r="M4" s="123"/>
-      <c r="N4" s="123"/>
-      <c r="O4" s="123"/>
-      <c r="P4" s="123"/>
-      <c r="Q4" s="123"/>
-      <c r="R4" s="123"/>
-      <c r="S4" s="123"/>
-      <c r="T4" s="123"/>
-      <c r="U4" s="123"/>
-      <c r="V4" s="123"/>
-      <c r="W4" s="123"/>
-      <c r="X4" s="123"/>
-      <c r="Y4" s="123"/>
-      <c r="Z4" s="123"/>
-      <c r="AA4" s="123"/>
-      <c r="AB4" s="123"/>
-      <c r="AC4" s="123"/>
-      <c r="AD4" s="123"/>
-      <c r="AE4" s="123"/>
-      <c r="AF4" s="123"/>
-      <c r="AG4" s="123"/>
-      <c r="AH4" s="123"/>
-      <c r="AI4" s="123"/>
-      <c r="AJ4" s="123"/>
-      <c r="AK4" s="123"/>
-      <c r="AL4" s="123"/>
-      <c r="AM4" s="123"/>
-      <c r="AN4" s="123"/>
-      <c r="AO4" s="123"/>
-      <c r="AP4" s="123"/>
-      <c r="AQ4" s="123"/>
-      <c r="AR4" s="123"/>
-      <c r="AS4" s="123"/>
-      <c r="AT4" s="123"/>
-      <c r="AU4" s="123"/>
-      <c r="AV4" s="123"/>
-      <c r="AW4" s="123"/>
-      <c r="AX4" s="123"/>
-      <c r="AY4" s="123"/>
-      <c r="AZ4" s="123"/>
-      <c r="BA4" s="123"/>
-      <c r="BB4" s="123"/>
-      <c r="BC4" s="123"/>
-      <c r="BD4" s="123"/>
-      <c r="BE4" s="123"/>
-      <c r="BF4" s="123"/>
-      <c r="BG4" s="123"/>
-      <c r="BH4" s="123"/>
-      <c r="BI4" s="123"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="124"/>
+      <c r="J4" s="124"/>
+      <c r="K4" s="124"/>
+      <c r="L4" s="124"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="124"/>
+      <c r="O4" s="124"/>
+      <c r="P4" s="124"/>
+      <c r="Q4" s="124"/>
+      <c r="R4" s="124"/>
+      <c r="S4" s="124"/>
+      <c r="T4" s="124"/>
+      <c r="U4" s="124"/>
+      <c r="V4" s="124"/>
+      <c r="W4" s="124"/>
+      <c r="X4" s="124"/>
+      <c r="Y4" s="124"/>
+      <c r="Z4" s="124"/>
+      <c r="AA4" s="124"/>
+      <c r="AB4" s="124"/>
+      <c r="AC4" s="124"/>
+      <c r="AD4" s="124"/>
+      <c r="AE4" s="124"/>
+      <c r="AF4" s="124"/>
+      <c r="AG4" s="124"/>
+      <c r="AH4" s="124"/>
+      <c r="AI4" s="124"/>
+      <c r="AJ4" s="124"/>
+      <c r="AK4" s="124"/>
+      <c r="AL4" s="124"/>
+      <c r="AM4" s="124"/>
+      <c r="AN4" s="124"/>
+      <c r="AO4" s="124"/>
+      <c r="AP4" s="124"/>
+      <c r="AQ4" s="124"/>
+      <c r="AR4" s="124"/>
+      <c r="AS4" s="124"/>
+      <c r="AT4" s="124"/>
+      <c r="AU4" s="124"/>
+      <c r="AV4" s="124"/>
+      <c r="AW4" s="124"/>
+      <c r="AX4" s="124"/>
+      <c r="AY4" s="124"/>
+      <c r="AZ4" s="124"/>
+      <c r="BA4" s="124"/>
+      <c r="BB4" s="124"/>
+      <c r="BC4" s="124"/>
+      <c r="BD4" s="124"/>
+      <c r="BE4" s="124"/>
+      <c r="BF4" s="124"/>
+      <c r="BG4" s="124"/>
+      <c r="BH4" s="124"/>
+      <c r="BI4" s="124"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
       <c r="BL4" s="1"/>
@@ -20495,71 +20593,71 @@
       <c r="IX4" s="1"/>
     </row>
     <row r="5" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="124" t="s">
+      <c r="A5" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="124"/>
-      <c r="C5" s="124"/>
-      <c r="D5" s="124"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="125" t="s">
-        <v>63</v>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="126" t="s">
+        <v>56</v>
       </c>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="125"/>
-      <c r="L5" s="125"/>
-      <c r="M5" s="125"/>
-      <c r="N5" s="125"/>
-      <c r="O5" s="125"/>
-      <c r="P5" s="125"/>
-      <c r="Q5" s="125"/>
-      <c r="R5" s="125"/>
-      <c r="S5" s="125"/>
-      <c r="T5" s="125"/>
-      <c r="U5" s="125"/>
-      <c r="V5" s="125"/>
-      <c r="W5" s="125"/>
-      <c r="X5" s="125"/>
-      <c r="Y5" s="125"/>
-      <c r="Z5" s="125"/>
-      <c r="AA5" s="125"/>
-      <c r="AB5" s="125"/>
-      <c r="AC5" s="125"/>
-      <c r="AD5" s="125"/>
-      <c r="AE5" s="125"/>
-      <c r="AF5" s="125"/>
-      <c r="AG5" s="125"/>
-      <c r="AH5" s="125"/>
-      <c r="AI5" s="125"/>
-      <c r="AJ5" s="125"/>
-      <c r="AK5" s="125"/>
-      <c r="AL5" s="125"/>
-      <c r="AM5" s="125"/>
-      <c r="AN5" s="125"/>
-      <c r="AO5" s="125"/>
-      <c r="AP5" s="125"/>
-      <c r="AQ5" s="125"/>
-      <c r="AR5" s="125"/>
-      <c r="AS5" s="125"/>
-      <c r="AT5" s="125"/>
-      <c r="AU5" s="125"/>
-      <c r="AV5" s="125"/>
-      <c r="AW5" s="125"/>
-      <c r="AX5" s="125"/>
-      <c r="AY5" s="125"/>
-      <c r="AZ5" s="125"/>
-      <c r="BA5" s="125"/>
-      <c r="BB5" s="125"/>
-      <c r="BC5" s="125"/>
-      <c r="BD5" s="125"/>
-      <c r="BE5" s="125"/>
-      <c r="BF5" s="125"/>
-      <c r="BG5" s="125"/>
-      <c r="BH5" s="125"/>
-      <c r="BI5" s="125"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="126"/>
+      <c r="M5" s="126"/>
+      <c r="N5" s="126"/>
+      <c r="O5" s="126"/>
+      <c r="P5" s="126"/>
+      <c r="Q5" s="126"/>
+      <c r="R5" s="126"/>
+      <c r="S5" s="126"/>
+      <c r="T5" s="126"/>
+      <c r="U5" s="126"/>
+      <c r="V5" s="126"/>
+      <c r="W5" s="126"/>
+      <c r="X5" s="126"/>
+      <c r="Y5" s="126"/>
+      <c r="Z5" s="126"/>
+      <c r="AA5" s="126"/>
+      <c r="AB5" s="126"/>
+      <c r="AC5" s="126"/>
+      <c r="AD5" s="126"/>
+      <c r="AE5" s="126"/>
+      <c r="AF5" s="126"/>
+      <c r="AG5" s="126"/>
+      <c r="AH5" s="126"/>
+      <c r="AI5" s="126"/>
+      <c r="AJ5" s="126"/>
+      <c r="AK5" s="126"/>
+      <c r="AL5" s="126"/>
+      <c r="AM5" s="126"/>
+      <c r="AN5" s="126"/>
+      <c r="AO5" s="126"/>
+      <c r="AP5" s="126"/>
+      <c r="AQ5" s="126"/>
+      <c r="AR5" s="126"/>
+      <c r="AS5" s="126"/>
+      <c r="AT5" s="126"/>
+      <c r="AU5" s="126"/>
+      <c r="AV5" s="126"/>
+      <c r="AW5" s="126"/>
+      <c r="AX5" s="126"/>
+      <c r="AY5" s="126"/>
+      <c r="AZ5" s="126"/>
+      <c r="BA5" s="126"/>
+      <c r="BB5" s="126"/>
+      <c r="BC5" s="126"/>
+      <c r="BD5" s="126"/>
+      <c r="BE5" s="126"/>
+      <c r="BF5" s="126"/>
+      <c r="BG5" s="126"/>
+      <c r="BH5" s="126"/>
+      <c r="BI5" s="126"/>
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1"/>
@@ -21558,7 +21656,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="84" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D9" s="84"/>
       <c r="E9" s="84"/>
@@ -21568,7 +21666,7 @@
       <c r="I9" s="84"/>
       <c r="J9" s="84"/>
       <c r="K9" s="84" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="L9" s="84"/>
       <c r="M9" s="84"/>
@@ -21578,7 +21676,7 @@
       <c r="Q9" s="84"/>
       <c r="R9" s="84"/>
       <c r="S9" s="84" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="T9" s="84"/>
       <c r="U9" s="84"/>
@@ -21588,7 +21686,7 @@
       <c r="Y9" s="84"/>
       <c r="Z9" s="84"/>
       <c r="AA9" s="113" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="AB9" s="113"/>
       <c r="AC9" s="113"/>
@@ -22624,7 +22722,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="84" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D13" s="84"/>
       <c r="E13" s="84"/>
@@ -22633,18 +22731,18 @@
       <c r="H13" s="84"/>
       <c r="I13" s="84"/>
       <c r="J13" s="84"/>
-      <c r="K13" s="84" t="b">
-        <v>1</v>
+      <c r="K13" s="123" t="s">
+        <v>81</v>
       </c>
-      <c r="L13" s="84"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="84"/>
-      <c r="R13" s="84"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="123"/>
+      <c r="N13" s="123"/>
+      <c r="O13" s="123"/>
+      <c r="P13" s="123"/>
+      <c r="Q13" s="123"/>
+      <c r="R13" s="123"/>
       <c r="S13" s="84" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="T13" s="84"/>
       <c r="U13" s="84"/>
@@ -23498,7 +23596,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="98" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D17" s="98"/>
       <c r="E17" s="98"/>
@@ -23767,7 +23865,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="98" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D18" s="98"/>
       <c r="E18" s="98"/>
@@ -25092,7 +25190,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="84" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D23" s="84"/>
       <c r="E23" s="84"/>
@@ -25357,7 +25455,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="84" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D24" s="84"/>
       <c r="E24" s="84"/>
@@ -26403,7 +26501,7 @@
     <row r="28" spans="1:259" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="24"/>
       <c r="B28" s="79" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C28" s="52"/>
       <c r="D28" s="52"/>
@@ -34816,21 +34914,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F5656D937027614D93C88AB71AE3D10C" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b60c200d0ae5f270a77b0ce61d313f15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="75fae816-41bf-471e-909f-5205fc9f8b57" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="893732230ae29545b6addaf499a489b1" ns2:_="">
     <xsd:import namespace="75fae816-41bf-471e-909f-5205fc9f8b57"/>
@@ -34962,24 +35045,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6513845-CAAC-46F8-AE5A-841CD9036AF9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A031C656-AB27-471D-AE93-28F498CA5BD8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11CFAB00-E59E-479F-AE56-68D6BEAC86FA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34995,4 +35076,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6513845-CAAC-46F8-AE5A-841CD9036AF9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A031C656-AB27-471D-AE93-28F498CA5BD8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>